--- a/Testdata/TC_Unit Manipulation_04.xlsx
+++ b/Testdata/TC_Unit Manipulation_04.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>eDUAAB+LCAAAAAAAAAPtW1tv48YV/iuEnxKg8pCS5VtmGciSvRGqi2HJ2XVeFiNyZLGmSJUX23pLH4oA6QUomgRIr8hD0SBA031Ii+1u0f6XYO3dPvUv9MwML0OKWoveLdqiDgJEc24zc+bMOd8ZM/jdy6mtnFPPt1zn3pq2rq4p1DFc03JO762Fwbiiba69q+P9S4Pah8QjUxqAsAJajr976Vv31iZBMNtF6OLiYv2itu56p6iqqhp62O0MjAmdkorl+AFxDLqWaJk3a63puGlOuzQgJgmI0Ly31h6015vUMlpA6xKHnFJvfS/0LYf6/r4TWIFFfabpURLQZqv7vtiYXl3fXNcwWqCnknuhZZtCLiMp6JEcTEuH1pTqVbWqVrRqRa0NNXW3Vt3V1HVtq/5BrJgI4g7xgwH1zi2DEwYBmc64ulZVa5paq2oqRoVCYCt1gI77tnlEzy2fmk1q234pj6DoABtGALsu50xYnqQbGbr9Eu57ZDYZWoFNy6ofuB41wFG3mrtHL/pe5L/hrAPc4cTygnmLzEvbOvap158xb5RT1XHLdYKGTb3geAaHSk04c2DogRdSjJYwU6WW5Rvw23JCaupjYvuyUoaJH7jemT8jBu3BhUXMxoVju8SEyAosP7CMdNIFBj703BlYhMn3XNs8AKuRcAEjsdx2wMVs2j3XPUtXV8TEPAZ4NMCZTkkQiy/Q8WDiXvQdez4IR77hWSNqtvZi6UIeZjcv0m6GfuBOYRUpCQuaRJnDP3DT8mTcooY1JfahDU709RpYyRBwIwzcsRU0XTucOn68phwVP4AdDellssNkjPtwuA5zuuu0nVheuLmQlVU4ci+SORcZ3AkSueEb8XEvMvLCLaDFx7fI4SfCdnlg2VAI5LOQqNmoGEwoDQpDQnAwy3kHrLToe3M2J0YpBUNkQnQDVWcFosL/HarqLv8XZk7YeN8xIzmNJ+eaLBczcS+c9kdwg8/5nnSWfnMkDLuw92zinAH1gRVMeo149QUcLPa8VH6Rh+Guzmwy5+TELzINtx3DDk0qUkDbGfOgZGsTx7iUjRdIHbjVOibOfDifQcr1rd0AftxbgyK86wcelPk13XBDJ/DmLFdgFInepOOHI4dPQOyVdcYe/X4I6GJ+EDpG0zVXn80U3jl2rGD1FbqhJxLg6irceywXhn6LsqzC0/zK+kaZPfleKfGpQ6euYxmrexuczFZv3mIjfnyrVtag4n6tLG9DJReFjt31ldU8gIZQ2kpN0/B917B4sEbXw5T00ZIr06JjEtoAywIoqqdJts2TccM/y8vIJHzs2XHO0xno9QH1GuZ03QC4wJDduuFOGQEB2HwwwEiWZ5jHoPvOaYc4pyGgiiSv5OlJxmUVcegRx2fbSUBELvkWC+E4Twlwo4vk1Q95IIjk5QIXo5wcHtLpzPWI3QXHWAdR2EUICcBHlwSTaATVzKZG7GSUqiZa2ZXFC79JjJclsQ124aM0mSNyIbYXga9TmZSG2S67cC3tJrGtkSeyaly8i3hwYCkcjPMv21xJaBifAfRYUG+/S+cMeKeDiM5DVosZIoBZItUHRxvb1bparwOWYWPMd3zfPQ8UQL0UUKFSUYbkUnlHaTumdW6ZIbHhJwQf7Ey4JypBpTRlHXwQ53e+hAasM0vJCgCyOLWgfCwKJpxUQT+hxLPnkqDYYsc1QO76k79fPf3V9Sd/vvrh7yovvvzp1cdf/POvv3j+5KvnT58KqtijkMZDMrIpX9Fwb3tbrW1AgCUkzLyKOAo2QyPgtJMTDn6TMY6aNT5o7reb9zt7PJEkxFhd1BLE+sC5G6bDgdgFn4ifJYpDQIjowzgxReMMV6pNOuvLzmlWWuYvUxS+ePHs9y+e/WGpduSwFGRpOzvbvPG9GYNpC3IJButkkj8T3qio9Uq1KgnnZPCRyPyJn9qmDv3zjqptqVqSxM0kiouE8qzI0pCcopyeIDUFLkpCQB7HTB75Q+oHCVvcBWkQxeiffvTyj59mpCLvRpSsFVgcxy9sMhQPuOne0VAZ9I+PmvvKcH/A4iTlSXLC+CuEo9mTC5UJKseBW/4dBao6VDFlDZqfNcUdK5QYE2UOV1G6iJlgK6KKiW5pMr/K+54bzsSJSAoptUAySSeFGgXJhvO4PxeyTsoqEBdrvfrLN0UK0UZaKZLVj7p7ytRJ4pLTcIYjSBI/urWf/+35k49Ycnv8s6snP8hYiOZJXgAgzuE2ycMk7CHlRYUmR8EPBtyZZ+ojqbBERNZBHbqWE/i6tsGbp2iEQVVj1vh/cXsKtY4b5v4Ceo6C3yP+/mUQXWy9h1GWAOucESizbtpmJgSRw1O//uPXv7n+5TfXnz1++dFXVx9/efXjz148++3Lr78Qt+7608fXP/k6yvL5QsDXwppXgf4U/hRiKOw2KqxoK99++HPFcQMFsIYS8oz07YefS8bYQjkqSS0DlksWkl3CgqiszPQUaSnJGjJ6iYqo/E1WwmqJRFTE3JllpJN8UGGm2L3jjLfaw0roU8UFGPU27CQrnCqvqhepiJJ6uKVWtWrEFathWxgRX3L9fdsdAYyIGfytISeS0Xq1QirL57vf6e81OqmIWETfM6nHwlD8wG0/RpNxeEkU4ALKM0KbPQktiC2ycPxLSl0oelsZN0yW8nS16P0iI4GboecJFOREb/KDcAbIN36BW87nr5IS2O0JYCrD33TcbmX5MJa4UPyybEbgfJ6OIpZITW2fPeMI7NpjrkmHwMu8ZII7omd3ga4ASVIPsVyz73muV5hwUk4s1gXYDFkEpR5PZBCbUkBsMz2rmBAnuTuofQe176D2HdS+g9r/b1A7mCyD2oyzBGoXKJZH2NpyhK09qmubtXHdIJXq5phWNrY3R5WduqpWNje3NkYmpfUNSv8D4Ds+rII/Mixdw+pV6Tbn/qpQLOia3nQmfe2a/epkekOSu7lnQ684sbtO6q6TetOdlJZ0UjES98Vbf+4vAJCMTP241x4+6jZ67cPjTmPY7rNegSEIqaAJkePOsH3Yae8fvTWcuKFPHPMdRXQ7gUJsW5myvzHMbAs6ibfZX2Okgph+niTWkYwj4A4X/pQG3cRAjN/fJ3YI3n4PI/GLw1K92e8Nho0e1PHo70Q5k0UzkNnM5iVi6SRHx/vlpkHyrgR+zXchEjU5ijQ1NjwrmIABy+jPqPijhQ85dEEuUWXdXqqkFGnxhjDfT0f5yBUK9Lb9FRLdBsokXJSrLflxnPpkOpLaFiR1Iqio70CZRgO9dlOBljYDyznxStPKVPhiUFC4CuWWtQCFwje3AHnczimro3qUqXBoEbWnJLQUkKMF1I2KcfAS8oJKEv6FxKKoStBJITGeQEKLSIATtIgt0Zt5pUUyIFNfCxOuDhOQRECLZTtLQpk6i/I1VSYgqQCignKXo6FsvUJRVkL/a6970dz/zc976DYPeujNvdtJhaVljccngCEfph9PxQSx4tQKG4iauoBKkARbpNiIvrB6s8FyK3BTZOfuRbnsi/LqDfa/5bEZpV+EpBCpRW1AdGW/O461u+75rXUhLMqqtv2+bUZ+LvdRS+KW1ID8FTiLobKLaXgeQAz22Wjpz7Y7lnPWLrd7XavTjQ1ze2dLpdXazsb2eLs63qxtQp84Vqv1HcBN3CjrBpiJKQBB9oVQyUlYgpLV06+5johzWtKacDBXZF88gaf4XY1632SMDyzPDx4yFBD9EpSThHIikONDvSrg4UMxPtFrdUEAASRPhjKrjlNPIP6HAdfuWFOr5FdRapyfskYgDGYzAQTLHmiz1e3RywAjyQKAhtH3AJ+IzwjLWBO3CjqgRD+2NQhHpc2hWPkQ+Cywbqe9bwK+vL02//zesl9jARxV3tZE2/Gt00lQ9lzJaIeY1Sqp1GtbtcpGjWxXRttmtVKjO+p4XFO3quy1LTEOhcOiFyUnYeXG8kNil9dDuf9/Sv8XDsoQ+ng1AAA=</t>
+          <t>AjYAAB+LCAAAAAAAAAPtW1lz2zgS/issP2UeZJCS7MhehFO6nOGsDpclT5J9mYJISMKah4aHbf37bQA8QIpKRMWz+7BOuWKhLwCNRvfXFI1/ffVc7ZmGEQv8TxfGpX6hUd8OHOZvPl0k8bplXF/8auLxq03dexISj8YgrIGWH92+RuzTxTaOd7cIvby8XL50LoNwg9q6bqCv08nC3lKPtJgfxcS36UWu5fxY68LEQ8eb0pg4JCZS89OFtbAuh5TZI6BNiU82NLwcJBHzaRSN/ZjFjEZcM6QkpsPR9A+5MbN9eX1pYHRALyQHCXMdKVeSlPRUDqalS+ZRs6239Zb+sWV0lvrVbde4bRuX152bf2WKuSCekChe0PCZ2YKwiIm3E+r6R6OjX3WNNsxWKwS2CgeYeO46D/SZRdQZUteNGnkEpQfYt2PYdTNn6hgpuqmh85fwOSS77ZLFLm2qfheE1AZHnTX3jL7Mw9R/y90EuMstC+P9iOwb23qMaDjfcW80UzXxKPDjvkvD+HEHh0odOHNgmHGYUIyOMAulEYts+Mz8hDrmmriRqlRi4i9B+BTtiE1ncGERt/HiuwFxILJiFsXMLiY9YOD7MNiBRZh8ELjOHVhNhWsYuWXLBxfzaQdB8FSsro6JRQyIaIAz9UiciR/Q8WIbvMx9d79IVpEdshV1RoNMupaH+c1LtYdJFAcerKIgYUlTKNMp2sM/uGxVDh5Rm3nEvXfBj5HZAUMlAu4ncbBm8TBwE8+PsmVVqPgLbGpJX/NN5mM8h/P1ud8D3/IzeenpWlZZ4SF4yec8ZAg/KOR+ZGcnfsioCo+Alp3gIUccCt/lHXOhFqjHoVDLgbHYUhrXRoXkYJ727nh1MQd7PidGBQVDcEKAA9XkNaIlfpa6fit+YOacjce+k8oZestotzqqXMbEs8Sbr+ASP4s9mQbwKiQMu3AHLvGfgPqFxdtZP1t9DQfLPR+VP+RhuK47l+wFOfeLSsOWb7uJQ2UWsPy1CEq+NnmMR9n4gDSBi21i4u+X+x1k3YjdxvDh0wXU4dsoDqHSX5h2kPhxuOfpAqNU9Ec6UbLyxQTEPVlnHdK/EgAY+7vEt4eBc/psjvTOo8/i01cYJKHMgaerCO/xdJhEI8oTi8j0J+vbTfYUhY3EPZ96gc/s070NTuard87YSJTdqpM1qLxfJ8u7UMxlreN3/WS1ENAhVLdG0/SjKLCZCNb0ejiKPjpyZUZ0TRIXkFkMdXWTZ9sqGfejp6qMSsKPoZvlPJPj3giAr+14lzYgBg7uLu3A4wQEePPLAiNVnsMem479zYT4mwSARZ5XqvQ84/KiuAyJH/Ht5DiiknzrhXCWpyS+MWXymiciEGTyCoCLUUUOL6m3C0LiTsEx7C4NuxQkAf6YknibjqCaudTOnIwK1VyrvLJs4T8SE2VJboNf+DRNVohCiO9FQuxCpqBhvsspXEt3SFy2CmVWzYp3HQ8OrECEWf7lm2uIDrMzgDYL6u0/6Z5j72KQ0kXIGhlDBjBPpObiodv72Ot22oBl+BiLHX8YDX8B3OYkwmm32oRB/l0z6mgzSHHgT+0ziW616XSwfIQyKJyUFqIz9FVNfJflerGcKYRsiVDmA8jYMKgkB3I5o5A3pwA9t+5ekZS7nQQ2CH6AmxfstAfmskiu/QkSA1+n1neJpw0JC0s7lmp4SVYuFUtbDnq93s1HCLqchLmnkQDH3BeCZo1mAhTnBJw2cWIwHFvD+4epyC45MdOXBQbx/nAfJMVwIfcjZhIHjLK4kCLmMMtW6bjEVQqWqTYEZR1V6pi6dIniyKMmUueVMNr1iRitzTGaXovRJqXikDbcYPRGEa7I4AdZGXKXWdDQ8w67o+vtPMk7eXzXCVVZqaUl2aCKniQNJW5Kw4HfvGKcMcVtsHwngPvOSC4jL4kykJ6sF0y9nFJqhGClAuzwmVE2EFOMGPTNMaTOmGqfqU/5nQ3W2py5GvEdfi3AN4W4oion5fpPQl/7HUq80J8yf0+eNIf44loNEo+pRtLV5rdTjbjDu1uKxzqqNPddxeqMn8Mg2R3knYJaI1mbgQ65FU3hs8OlFbwaebnYQQI1lPh1SuluRgXkNaczDfKVFm/zGBVkXGVKqiIibf2exETIPLBVUjKRzpU/MYCgh6ulDvM7ALkwrUoVCv6yEF590v9UqlBK5O3WfcD8ODJ7XdFppSMMqga3Jn5jy4PCKAwLvwG9QsG/kWj8Gqe33ITcWybAOncEwjQoetKcIJN74VsYUlezRpcPg4FudG+1I3VCKxWTtCBUa4ZYnfh0YPF7VVP7oOZo1TjfitAsZsrWp43hBm/4batKqDqmkNoraygp5LISOAyh2vU+5hJpvQt2zC6sL0QOyGevcAvpbOaFyDmKYCoj6+t97/qmY6RcOR8HRysS0ZpMCNugHks8LZMRzyUq0iUDJ+sWajKFz0bz2Xhh9Qspubp5CImPx6T8gK0ow6FZrCkU4AI+tOF+x/RQ7JCFs09KQkPpU5l13+HP4k297slHSQIPkzCUqMlPH+gvkh1g5vzBy3EB8UxTwckziWlV5FyMrVGZD2OFC3WxzOYEwRepKWXJNGVF/AmQhL0z7ptiCLzSc1DwR/rQXoKwZwbngHjmGYdhENamn4KTiU0BcUNOQYXLcxnEp5To3CkOKyNkKe8dpb+j9HeU/o7S31H6O0qvQenHIfp/EZ8bx/G58afTMdq2s1639LVz0+rSK9Ii1Oi1OpQSQq+6V9fdm/8BdM8Orub7jKNrOLlynRUC3wvL+qbrrZPrGxX472fZU7Lfj/s/9J3ze+/K3ruyv7UrM/KuLAP1kfzGofI9BOQpx3ycWcs/p/2Zdf846S+tOW87ONhQqpsUeZwsrfuJNX74sNwGSQRF+B+abJxijbiu5vFvOnYug6bkF/6dkFIdi/ek5DrycdoDQCLY0HiaG8hagT+Im8Ax/IaR/CTQrDmczxbL/mwJ5yK/raqYrJuB7HauqB5HJ3l4HDebBqm7kqi32tAo1PwoiqzZD1m8BQPMnu+o/OoEMM2hXK7KG8dCSavTEr1ltTdPk1MgFei5rRqS3QoqJWJUKTvVcZYHVTpS2h6kNDCorl1BpfYE/XQrgo42D8c52UqLilX79KGmoNXKHesWaoV/3C1UIb6gnN4AoFLNQ4fYviCho3AdHQBwVA+Kj5APVPLwryXWRVUOXGqJ2QQKkEQSt6BD9Ine5vEvUrGa/lNw8XTMgBQCOqzQZRIqlVhULacqASmVEdXUwQoNlUsWSrMSen9S+OZPCtE5zwbR2z0CVArLiK3X3wDqfi1e4coIcsWFFT6QNfUAlSAFtiixkb7n9bbBcha4qbPz/xVzb/J0+vTm+295cI2KF1MKjDSiLkC6pm9AZ9rT4PlsXYiLpqpWNHed1M/N3q3J3VIYUN9H5zHUdDH9MASMwd9ebfwC+YT5T1az3ZtXvfUKosYxOvqq21n3jPVah5CB/3oQRw4AJ2GUtwPchAdIkL+o1GwSg2coVb14qeyB+JuG1qSDhSJ/8Qo8JZ90ghJ/6Sob4zsWRvFXDgPST5LyLad8k9Dxq9mW+PCrHH8ze1eSAAJInQyVVp3lnlj+6ULgTpjHGr6cpWf5qWwEwmC3k0iw6YEOR9MZfY0xUiwAalj9GwCKfJuxiTV5q6AFyvUzW4tk1dgcypTvgc8D6zztsQMA83xt8YcAzP2JBQhYea4Jy4/YZhs3PVdDdzo3N3qv5XQNu9XtGXqLdGin5eir9U2no3d15yN/fTs1DoWD0ZeGk/Byw6KEuM31UOUvucz/ANrCiTMCNgAA</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +113,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,34 +442,34 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -454,105 +478,105 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB th</t>
+          <t>BTU th</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -561,7 +585,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -574,300 +598,850 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
+      <c r="B12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="C12" s="6">
+        <v>38718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
+      <c r="B13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="C17" s="2">
-        <v>1231927</v>
+        <v>93374639803.5</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="C18" s="2">
-        <v>196242715756.6667</v>
+        <v>6.758867972409232e+19</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="C19" s="2">
-        <v>442992.9071177852</v>
+        <v>8221233467.31452</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892377</v>
+        <v>0.5786993566761693</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045282</v>
+        <v>-0.2909755924600774</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>727630</v>
+        <v>80465449010</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>112482.41951</v>
       </c>
       <c r="C24" s="2">
-        <v>2026830</v>
+        <v>112482419510</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>92555.497445</v>
       </c>
       <c r="C25" s="2">
-        <v>1181145</v>
+        <v>92555497445</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <v>37226</v>
-      </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>791020</v>
+      <c r="A27" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B27" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="C27" s="11">
+        <v>102584641700</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <v>37591</v>
-      </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>767730</v>
+      <c r="A28" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B28" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C28" s="11">
+        <v>93467549440</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <v>37956</v>
-      </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>727630</v>
+      <c r="A29" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C29" s="11">
+        <v>98607012120</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>38322</v>
-      </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>922910</v>
+      <c r="A30" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C30" s="11">
+        <v>97395643670</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <v>38687</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1126490</v>
+      <c r="A31" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B31" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>92075124370</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B32" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C32" s="11">
+        <v>95232238190</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B33" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="C33" s="11">
+        <v>100047707300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B34" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C34" s="11">
+        <v>95307240110</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B35" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C35" s="11">
+        <v>89917837980</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B36" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C36" s="11">
+        <v>98395832320</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B37" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C37" s="11">
+        <v>98170134280</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1235800</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B38" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C38" s="11">
+        <v>98568948260</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>95524249800</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>83617022680</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B41" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C41" s="11">
+        <v>98607012120</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B42" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C42" s="11">
+        <v>87313592920</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C43" s="11">
+        <v>89092122780</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C44" s="11">
+        <v>83580496200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B45" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C45" s="11">
+        <v>89062827190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C46" s="11">
+        <v>93159997100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B47" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C47" s="11">
+        <v>86589082240</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B48" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C48" s="11">
+        <v>93035870520</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B49" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C49" s="11">
+        <v>91356150840</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1482710</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B50" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C50" s="11">
+        <v>95688737970</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B51" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C51" s="11">
+        <v>96328946900</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>98953753030</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C53" s="11">
+        <v>90097772220</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B54" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C54" s="11">
+        <v>82155807940</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B55" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="C55" s="11">
+        <v>90612214280</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C56" s="11">
+        <v>83468699560</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B57" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="C57" s="11">
+        <v>85880465270</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B58" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C58" s="11">
+        <v>88071952060</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B59" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C59" s="11">
+        <v>86411658100</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>85863463570</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C61" s="11">
+        <v>87911156020</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1598610</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B62" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C62" s="11">
+        <v>91789908220</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B63" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C63" s="11">
+        <v>92030371780</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B64" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C64" s="11">
+        <v>80465449010</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C65" s="11">
+        <v>81558517880</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B66" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="C66" s="11">
+        <v>81657461190</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B67" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C67" s="11">
+        <v>83308785290</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B68" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C68" s="11">
+        <v>84839490190</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B69" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C69" s="11">
+        <v>90413667120</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B70" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C70" s="11">
+        <v>85945567430</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B71" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C71" s="11">
+        <v>84672439130</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B72" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C72" s="11">
+        <v>85370544010</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B73" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C73" s="11">
+        <v>86578438800</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1639540</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B74" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C74" s="11">
+        <v>97156656670</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C75" s="11">
+        <v>97289108380</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B76" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C76" s="11">
+        <v>94671436800</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B77" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C77" s="11">
+        <v>110403243140</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>99640668650</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C79" s="11">
+        <v>110055816100</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C80" s="11">
+        <v>94930029680</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B81" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C81" s="11">
+        <v>111079159330</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B82" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C82" s="11">
+        <v>112482419510</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B83" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C83" s="11">
+        <v>105503178110</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B84" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C84" s="11">
+        <v>107765025290</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B85" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C85" s="11">
+        <v>101364036070</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>2026830</v>
+      <c r="B86" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C86" s="11">
+        <v>109354009380</v>
       </c>
     </row>
   </sheetData>
@@ -887,23 +1461,23 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>1</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -913,7 +1487,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A840C932-5F1B-44F2-AB8E-81518AF33EED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ACC0308-85B3-4838-B046-7710C38A13BE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
